--- a/metadata_injuries.xlsx
+++ b/metadata_injuries.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\DataSet\Open Data\injuries_report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\DataSet\Open Data\Injuries_Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D93B84-D71E-4240-B35A-0048F3A0DEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FB1389-4477-47C8-A916-5B3E19B187A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7AEB6F3B-01BC-4D54-8CE1-C1D39ABC2273}"/>
   </bookViews>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD073D9-B681-4C8B-AF9F-5D4218D9EEDA}">
   <dimension ref="A2:B10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
